--- a/To.Rpa.AppCTS/CTS/WORKSPACE/RESPALDO/4038/PLANTILLA/Plantilla abono CTS - 4038.xlsx
+++ b/To.Rpa.AppCTS/CTS/WORKSPACE/RESPALDO/4038/PLANTILLA/Plantilla abono CTS - 4038.xlsx
@@ -1491,7 +1491,7 @@
         <x:v>38</x:v>
       </x:c>
       <x:c r="E25" s="36" t="n">
-        <x:v>16509880</x:v>
+        <x:v>16509880-ROJO</x:v>
       </x:c>
       <x:c r="F25" s="35" t="n">
         <x:v>000000000003</x:v>
